--- a/Doc/DSYG_ERP_DB.xlsx
+++ b/Doc/DSYG_ERP_DB.xlsx
@@ -4,41 +4,43 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="390" windowWidth="20730" windowHeight="11760" tabRatio="821"/>
+    <workbookView xWindow="1695" yWindow="390" windowWidth="20730" windowHeight="11760" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="2" r:id="rId1"/>
-    <sheet name="tbfinance" sheetId="27" r:id="rId2"/>
-    <sheet name="tbassets" sheetId="25" r:id="rId3"/>
-    <sheet name="tbpersonal" sheetId="26" r:id="rId4"/>
-    <sheet name="tbdocument" sheetId="24" r:id="rId5"/>
-    <sheet name="tbattendance" sheetId="23" r:id="rId6"/>
-    <sheet name="tbpurchase" sheetId="11" r:id="rId7"/>
-    <sheet name="tbPurchaseItem" sheetId="19" r:id="rId8"/>
-    <sheet name="tbwarehouse" sheetId="18" r:id="rId9"/>
-    <sheet name="tbsales" sheetId="20" r:id="rId10"/>
-    <sheet name="tbSalesItem" sheetId="21" r:id="rId11"/>
-    <sheet name="tbsupplier" sheetId="15" r:id="rId12"/>
-    <sheet name="tbcustomer" sheetId="17" r:id="rId13"/>
-    <sheet name="tbrole" sheetId="12" r:id="rId14"/>
-    <sheet name="tbroleres" sheetId="13" r:id="rId15"/>
-    <sheet name="tbresource" sheetId="14" r:id="rId16"/>
-    <sheet name="tbuser" sheetId="16" r:id="rId17"/>
-    <sheet name="tbproduct01" sheetId="1" r:id="rId18"/>
-    <sheet name="tbwarehouse01" sheetId="3" r:id="rId19"/>
-    <sheet name="tbdict01" sheetId="4" r:id="rId20"/>
-    <sheet name="tbnews" sheetId="5" r:id="rId21"/>
-    <sheet name="tbqa" sheetId="7" r:id="rId22"/>
-    <sheet name="tbrecruit" sheetId="9" r:id="rId23"/>
-    <sheet name="tbcase" sheetId="10" r:id="rId24"/>
-    <sheet name="Dict01_data_sql" sheetId="8" r:id="rId25"/>
+    <sheet name="tbprice" sheetId="29" r:id="rId2"/>
+    <sheet name="tbquantity" sheetId="28" r:id="rId3"/>
+    <sheet name="tbfinance" sheetId="27" r:id="rId4"/>
+    <sheet name="tbassets" sheetId="25" r:id="rId5"/>
+    <sheet name="tbpersonal" sheetId="26" r:id="rId6"/>
+    <sheet name="tbdocument" sheetId="24" r:id="rId7"/>
+    <sheet name="tbattendance" sheetId="23" r:id="rId8"/>
+    <sheet name="tbpurchase" sheetId="11" r:id="rId9"/>
+    <sheet name="tbPurchaseItem" sheetId="19" r:id="rId10"/>
+    <sheet name="tbwarehouse" sheetId="18" r:id="rId11"/>
+    <sheet name="tbsales" sheetId="20" r:id="rId12"/>
+    <sheet name="tbSalesItem" sheetId="21" r:id="rId13"/>
+    <sheet name="tbsupplier" sheetId="15" r:id="rId14"/>
+    <sheet name="tbcustomer" sheetId="17" r:id="rId15"/>
+    <sheet name="tbrole" sheetId="12" r:id="rId16"/>
+    <sheet name="tbroleres" sheetId="13" r:id="rId17"/>
+    <sheet name="tbresource" sheetId="14" r:id="rId18"/>
+    <sheet name="tbuser" sheetId="16" r:id="rId19"/>
+    <sheet name="tbproduct01" sheetId="1" r:id="rId20"/>
+    <sheet name="tbwarehouse01" sheetId="3" r:id="rId21"/>
+    <sheet name="tbdict01" sheetId="4" r:id="rId22"/>
+    <sheet name="tbnews" sheetId="5" r:id="rId23"/>
+    <sheet name="tbqa" sheetId="7" r:id="rId24"/>
+    <sheet name="tbrecruit" sheetId="9" r:id="rId25"/>
+    <sheet name="tbcase" sheetId="10" r:id="rId26"/>
+    <sheet name="Dict01_data_sql" sheetId="8" r:id="rId27"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="915">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4272,6 +4274,226 @@
   </si>
   <si>
     <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res02</t>
+  </si>
+  <si>
+    <t>预备项目1</t>
+  </si>
+  <si>
+    <t>Res01</t>
+  </si>
+  <si>
+    <t>Item2</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>Item1</t>
+  </si>
+  <si>
+    <t>Quantity04</t>
+  </si>
+  <si>
+    <t>Quantity03</t>
+  </si>
+  <si>
+    <t>Quantity02</t>
+  </si>
+  <si>
+    <t>实际库存数</t>
+  </si>
+  <si>
+    <t>Quantity01</t>
+  </si>
+  <si>
+    <t>上海仓库，深圳仓库等</t>
+  </si>
+  <si>
+    <t>Warehouse_ID</t>
+  </si>
+  <si>
+    <t>tbproduct01 的ID</t>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>Product_ID</t>
+  </si>
+  <si>
+    <t>Sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbquantity</t>
+  </si>
+  <si>
+    <t>Price01</t>
+  </si>
+  <si>
+    <t>15，3</t>
+  </si>
+  <si>
+    <t>产品单价（未税）</t>
+  </si>
+  <si>
+    <t>Item3</t>
+  </si>
+  <si>
+    <t>Item4</t>
+  </si>
+  <si>
+    <t>Item5</t>
+  </si>
+  <si>
+    <t>Item6</t>
+  </si>
+  <si>
+    <t>tbprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbquantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品价格表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品价格表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品库存表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品库存表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：上海，1：深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateUid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateUid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4504,7 +4726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4671,6 +4893,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4972,10 +5197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E27"/>
+  <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5317,6 +5542,34 @@
         <v>851</v>
       </c>
     </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="39">
+        <v>24</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>887</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="39">
+        <v>25</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>888</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>892</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5325,6 +5578,2256 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.25" thickTop="1">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="8">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>800</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="50">
+        <v>32</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51" t="s">
+        <v>812</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>801</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="50">
+        <v>32</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>810</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="50">
+        <v>32</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51" t="s">
+        <v>766</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>797</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="50">
+        <v>32</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="52" t="s">
+        <v>796</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>798</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="50">
+        <v>32</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="52" t="s">
+        <v>767</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>799</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="50">
+        <v>32</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52" t="s">
+        <v>768</v>
+      </c>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>621</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="50">
+        <v>64</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="8">
+        <v>11</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="50">
+        <v>64</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="8">
+        <v>12</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="50">
+        <v>32</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>811</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="50">
+        <v>16</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="52" t="s">
+        <v>765</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="50">
+        <v>4</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="52" t="s">
+        <v>802</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="50">
+        <v>11</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51" t="s">
+        <v>643</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="8">
+        <v>16</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>626</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="50">
+        <v>11</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="8">
+        <v>17</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>645</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="50">
+        <v>11</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="8">
+        <v>18</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>628</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="8">
+        <v>19</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>630</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51" t="s">
+        <v>832</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="8">
+        <v>20</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51" t="s">
+        <v>831</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="8">
+        <v>21</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="50">
+        <v>32</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51" t="s">
+        <v>637</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="8">
+        <v>22</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="45">
+        <v>20</v>
+      </c>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="8">
+        <v>23</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="45">
+        <v>64</v>
+      </c>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="I27" s="47"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="8">
+        <v>24</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="45">
+        <v>32</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="H28" s="45"/>
+      <c r="I28" s="47"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="8">
+        <v>25</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="45">
+        <v>32</v>
+      </c>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46" t="s">
+        <v>773</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="8">
+        <v>26</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="45">
+        <v>128</v>
+      </c>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="43"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="8">
+        <v>27</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="45">
+        <v>64</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="43"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="8">
+        <v>28</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="4">
+        <v>500</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="8">
+        <v>29</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="8">
+        <v>30</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="8">
+        <v>31</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="4">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="8">
+        <v>32</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="8">
+        <v>33</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="4">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="8">
+        <v>34</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="4">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="8">
+        <v>35</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="4">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="8">
+        <v>36</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="4">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="8">
+        <v>37</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="4">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="8">
+        <v>38</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="8">
+        <v>39</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="4">
+        <v>50</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="8">
+        <v>40</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="4">
+        <v>200</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="8">
+        <v>41</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="4">
+        <v>5</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="8">
+        <v>42</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="8">
+        <v>43</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="4">
+        <v>5</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="8">
+        <v>44</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.25" thickTop="1">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" ht="27">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="8">
+        <v>500</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="8">
+        <v>32</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>800</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="50">
+        <v>32</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51" t="s">
+        <v>812</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>801</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="50">
+        <v>32</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>810</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="50">
+        <v>32</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51" t="s">
+        <v>766</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>797</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="50">
+        <v>32</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52" t="s">
+        <v>796</v>
+      </c>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>798</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="50">
+        <v>32</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="52" t="s">
+        <v>767</v>
+      </c>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="8">
+        <v>11</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>799</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="50">
+        <v>32</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="52" t="s">
+        <v>768</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="8">
+        <v>12</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>621</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="50">
+        <v>64</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="50">
+        <v>64</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="50">
+        <v>32</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>811</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="50">
+        <v>16</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52" t="s">
+        <v>765</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="8">
+        <v>16</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="50">
+        <v>4</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="52" t="s">
+        <v>802</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="8">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="4">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="8">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="4">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="8">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="8">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="8">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="8">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="8">
+        <v>23</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="4">
+        <v>32</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="8">
+        <v>24</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="4">
+        <v>20</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="8">
+        <v>25</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="4">
+        <v>64</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="8">
+        <v>26</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="4">
+        <v>32</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="8">
+        <v>27</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="4">
+        <v>32</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="8">
+        <v>28</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="4">
+        <v>128</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="8">
+        <v>29</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="4">
+        <v>64</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="8">
+        <v>30</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="4">
+        <v>64</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="2:9" s="54" customFormat="1">
+      <c r="B35" s="53">
+        <v>31</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>814</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="50">
+        <v>64</v>
+      </c>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51" t="s">
+        <v>780</v>
+      </c>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+    </row>
+    <row r="36" spans="2:9" s="54" customFormat="1">
+      <c r="B36" s="53">
+        <v>32</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>815</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="50">
+        <v>32</v>
+      </c>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51" t="s">
+        <v>779</v>
+      </c>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+    </row>
+    <row r="37" spans="2:9" s="54" customFormat="1">
+      <c r="B37" s="53">
+        <v>33</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>816</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="50">
+        <v>32</v>
+      </c>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+    </row>
+    <row r="38" spans="2:9" s="54" customFormat="1">
+      <c r="B38" s="53">
+        <v>34</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>817</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="50">
+        <v>128</v>
+      </c>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51" t="s">
+        <v>782</v>
+      </c>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+    </row>
+    <row r="39" spans="2:9" s="54" customFormat="1">
+      <c r="B39" s="53">
+        <v>35</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>818</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="50">
+        <v>64</v>
+      </c>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51" t="s">
+        <v>783</v>
+      </c>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+    </row>
+    <row r="40" spans="2:9" s="54" customFormat="1">
+      <c r="B40" s="53">
+        <v>36</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>819</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="50">
+        <v>32</v>
+      </c>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51" t="s">
+        <v>784</v>
+      </c>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+    </row>
+    <row r="41" spans="2:9" s="54" customFormat="1">
+      <c r="B41" s="53">
+        <v>37</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+    </row>
+    <row r="42" spans="2:9" s="54" customFormat="1">
+      <c r="B42" s="53">
+        <v>38</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>821</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+    </row>
+    <row r="43" spans="2:9" s="54" customFormat="1">
+      <c r="B43" s="53">
+        <v>39</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>822</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>823</v>
+      </c>
+      <c r="E43" s="50">
+        <v>500</v>
+      </c>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51" t="s">
+        <v>787</v>
+      </c>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="8">
+        <v>40</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="4">
+        <v>500</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="8">
+        <v>41</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="8">
+        <v>42</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="8">
+        <v>43</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="4">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="8">
+        <v>44</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="4">
+        <v>10</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="8">
+        <v>45</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="4">
+        <v>10</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="8">
+        <v>46</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="4">
+        <v>10</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="8">
+        <v>47</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="4">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="8">
+        <v>48</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="4">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="8">
+        <v>49</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="4">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="8">
+        <v>50</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="4">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="8">
+        <v>51</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="4">
+        <v>50</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="8">
+        <v>52</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="4">
+        <v>200</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="8">
+        <v>53</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="4">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="8">
+        <v>54</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="8">
+        <v>55</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="8">
+        <v>56</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I39"/>
   <sheetViews>
@@ -6128,7 +8631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I48"/>
   <sheetViews>
@@ -7112,7 +9615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M50"/>
   <sheetViews>
@@ -8143,7 +10646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M50"/>
   <sheetViews>
@@ -9174,7 +11677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M14"/>
   <sheetViews>
@@ -9440,7 +11943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M6"/>
   <sheetViews>
@@ -9550,7 +12053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M12"/>
   <sheetViews>
@@ -9802,7 +12305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M15"/>
   <sheetViews>
@@ -10110,7 +12613,583 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.25" thickTop="1">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>871</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="8">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="41" t="s">
+        <v>870</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="41" t="s">
+        <v>894</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>879</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="56" t="s">
+        <v>881</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>884</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="8">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="8">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>856</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="8">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="8">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="8">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="8">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E23" s="4">
+        <v>50</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="8">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E24" s="4">
+        <v>200</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="8">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="8">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="8">
+        <v>23</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="8">
+        <v>24</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M68"/>
   <sheetViews>
@@ -11678,7 +14757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M41"/>
   <sheetViews>
@@ -12459,665 +15538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:13" ht="14.25" thickTop="1">
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="8">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" ht="27">
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>845</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>848</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="4">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="8">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="8">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="4">
-        <v>64</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="4">
-        <v>32</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="8">
-        <v>8</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="4">
-        <v>32</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="8">
-        <v>9</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="4">
-        <v>128</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="8">
-        <v>10</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="4">
-        <v>64</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="8">
-        <v>11</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="4">
-        <v>500</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="8">
-        <v>12</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="8">
-        <v>13</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="8">
-        <v>14</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="4">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="8">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="4">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="8">
-        <v>16</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="4">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="8">
-        <v>17</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="4">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="8">
-        <v>18</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="4">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="8">
-        <v>19</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="4">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="8">
-        <v>20</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="4">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="8">
-        <v>21</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="4">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="8">
-        <v>22</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="4">
-        <v>50</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="8">
-        <v>23</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="4">
-        <v>200</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="8">
-        <v>24</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="8">
-        <v>25</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="8">
-        <v>26</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="4">
-        <v>5</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="8">
-        <v>27</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M16"/>
   <sheetViews>
@@ -13537,7 +15958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I25"/>
   <sheetViews>
@@ -14007,7 +16428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I23"/>
   <sheetViews>
@@ -14434,7 +16855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I19"/>
   <sheetViews>
@@ -14788,7 +17209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I23"/>
   <sheetViews>
@@ -15216,7 +17637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M68"/>
   <sheetViews>
@@ -18025,6 +20446,1218 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M27"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.25" thickTop="1">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>871</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="E6" s="8">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="41" t="s">
+        <v>870</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>868</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>866</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="56" t="s">
+        <v>865</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>864</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>863</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>862</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="8">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>856</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="8">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="8">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="8">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="8">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E22" s="4">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="8">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E23" s="4">
+        <v>200</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="8">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="8">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="8">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="8">
+        <v>23</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.25" thickTop="1">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" ht="27">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>848</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="4">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4">
+        <v>64</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="4">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="4">
+        <v>128</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="8">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4">
+        <v>500</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="8">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="8">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="8">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="8">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="8">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="8">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="8">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="8">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="8">
+        <v>23</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="4">
+        <v>200</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="8">
+        <v>24</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="8">
+        <v>25</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="8">
+        <v>26</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="8">
+        <v>27</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M27"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
@@ -18595,7 +22228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M35"/>
   <sheetViews>
@@ -19325,7 +22958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M26"/>
   <sheetViews>
@@ -19879,7 +23512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M26"/>
   <sheetViews>
@@ -20435,7 +24068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M39"/>
   <sheetViews>
@@ -21249,2254 +24882,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:13" ht="14.25" thickTop="1">
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="8">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>639</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="8">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="4">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>800</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="50">
-        <v>32</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51" t="s">
-        <v>812</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="8">
-        <v>5</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>801</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="50">
-        <v>32</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51" t="s">
-        <v>813</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="8">
-        <v>6</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>810</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="50">
-        <v>32</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51" t="s">
-        <v>766</v>
-      </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>797</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="50">
-        <v>32</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="52" t="s">
-        <v>796</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="8">
-        <v>8</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>798</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="50">
-        <v>32</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="52" t="s">
-        <v>767</v>
-      </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="8">
-        <v>9</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>799</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="50">
-        <v>32</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="52" t="s">
-        <v>768</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="8">
-        <v>10</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>621</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="50">
-        <v>64</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51" t="s">
-        <v>622</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="8">
-        <v>11</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>623</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="50">
-        <v>64</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51" t="s">
-        <v>624</v>
-      </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="8">
-        <v>12</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="50">
-        <v>32</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="8">
-        <v>13</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>811</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="50">
-        <v>16</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="52" t="s">
-        <v>765</v>
-      </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="8">
-        <v>14</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>803</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="50">
-        <v>4</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="52" t="s">
-        <v>802</v>
-      </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="8">
-        <v>15</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>625</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="50">
-        <v>11</v>
-      </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51" t="s">
-        <v>643</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>647</v>
-      </c>
-      <c r="I19" s="50"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="8">
-        <v>16</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>626</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="50">
-        <v>11</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51" t="s">
-        <v>644</v>
-      </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="8">
-        <v>17</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>645</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="50">
-        <v>11</v>
-      </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51" t="s">
-        <v>646</v>
-      </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="8">
-        <v>18</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>628</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>544</v>
-      </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="46" t="s">
-        <v>769</v>
-      </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="8">
-        <v>19</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>630</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>544</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51" t="s">
-        <v>832</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>632</v>
-      </c>
-      <c r="I23" s="50"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="8">
-        <v>20</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>829</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>544</v>
-      </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51" t="s">
-        <v>831</v>
-      </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="8">
-        <v>21</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>636</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="50">
-        <v>32</v>
-      </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51" t="s">
-        <v>637</v>
-      </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="8">
-        <v>22</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>537</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="45">
-        <v>20</v>
-      </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46" t="s">
-        <v>770</v>
-      </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="8">
-        <v>23</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>510</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="45">
-        <v>64</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46" t="s">
-        <v>771</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="47"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="8">
-        <v>24</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="45">
-        <v>32</v>
-      </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46" t="s">
-        <v>772</v>
-      </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="47"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="8">
-        <v>25</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>528</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="45">
-        <v>32</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46" t="s">
-        <v>773</v>
-      </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="43"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="8">
-        <v>26</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="45">
-        <v>128</v>
-      </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46" t="s">
-        <v>774</v>
-      </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="43"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="8">
-        <v>27</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>530</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="45">
-        <v>64</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46" t="s">
-        <v>775</v>
-      </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="43"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="8">
-        <v>28</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>648</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="4">
-        <v>500</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="8">
-        <v>29</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="8">
-        <v>30</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="4">
-        <v>3</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="8">
-        <v>31</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="4">
-        <v>10</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="8">
-        <v>32</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="4">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="42" t="s">
-        <v>776</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="8">
-        <v>33</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="4">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="8">
-        <v>34</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="4">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="8">
-        <v>35</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="4">
-        <v>10</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="8">
-        <v>36</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="4">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="8">
-        <v>37</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="4">
-        <v>10</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="8">
-        <v>38</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="4">
-        <v>10</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="8">
-        <v>39</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="4">
-        <v>50</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="8">
-        <v>40</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="4">
-        <v>200</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="8">
-        <v>41</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="4">
-        <v>5</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="8">
-        <v>42</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="8">
-        <v>43</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="4">
-        <v>5</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="8">
-        <v>44</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:13" ht="14.25" thickTop="1">
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="8">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" ht="27">
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="8">
-        <v>500</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
-        <v>827</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>824</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="8">
-        <v>32</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="8">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="4">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="8">
-        <v>6</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>800</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="50">
-        <v>32</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51" t="s">
-        <v>812</v>
-      </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>801</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="50">
-        <v>32</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51" t="s">
-        <v>813</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="8">
-        <v>8</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>810</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="50">
-        <v>32</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51" t="s">
-        <v>766</v>
-      </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="8">
-        <v>9</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>797</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="50">
-        <v>32</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="52" t="s">
-        <v>796</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="8">
-        <v>10</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>798</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="50">
-        <v>32</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="52" t="s">
-        <v>767</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="8">
-        <v>11</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>799</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="50">
-        <v>32</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="52" t="s">
-        <v>768</v>
-      </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="8">
-        <v>12</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>621</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="50">
-        <v>64</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
-        <v>622</v>
-      </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="8">
-        <v>13</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>623</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="50">
-        <v>64</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51" t="s">
-        <v>624</v>
-      </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="8">
-        <v>14</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="50">
-        <v>32</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="8">
-        <v>15</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>811</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="50">
-        <v>16</v>
-      </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="52" t="s">
-        <v>765</v>
-      </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="8">
-        <v>16</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>803</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="50">
-        <v>4</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="52" t="s">
-        <v>802</v>
-      </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="8">
-        <v>17</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="4">
-        <v>11</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="8">
-        <v>18</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>651</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="4">
-        <v>11</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="8">
-        <v>19</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="8">
-        <v>20</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="8">
-        <v>21</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>650</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="8">
-        <v>22</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="8">
-        <v>23</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>636</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="4">
-        <v>32</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="8">
-        <v>24</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="4">
-        <v>20</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="8">
-        <v>25</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="4">
-        <v>64</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="8">
-        <v>26</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="4">
-        <v>32</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="8">
-        <v>27</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="4">
-        <v>32</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="8">
-        <v>28</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>659</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="4">
-        <v>128</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="8">
-        <v>29</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="4">
-        <v>64</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="8">
-        <v>30</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>638</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="4">
-        <v>64</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" s="54" customFormat="1">
-      <c r="B35" s="53">
-        <v>31</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>814</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="50">
-        <v>64</v>
-      </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51" t="s">
-        <v>780</v>
-      </c>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-    </row>
-    <row r="36" spans="2:9" s="54" customFormat="1">
-      <c r="B36" s="53">
-        <v>32</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>815</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="50">
-        <v>32</v>
-      </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51" t="s">
-        <v>779</v>
-      </c>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-    </row>
-    <row r="37" spans="2:9" s="54" customFormat="1">
-      <c r="B37" s="53">
-        <v>33</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>816</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="50">
-        <v>32</v>
-      </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51" t="s">
-        <v>778</v>
-      </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-    </row>
-    <row r="38" spans="2:9" s="54" customFormat="1">
-      <c r="B38" s="53">
-        <v>34</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>817</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="50">
-        <v>128</v>
-      </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51" t="s">
-        <v>782</v>
-      </c>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-    </row>
-    <row r="39" spans="2:9" s="54" customFormat="1">
-      <c r="B39" s="53">
-        <v>35</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>818</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="50">
-        <v>64</v>
-      </c>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51" t="s">
-        <v>783</v>
-      </c>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-    </row>
-    <row r="40" spans="2:9" s="54" customFormat="1">
-      <c r="B40" s="53">
-        <v>36</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>819</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="50">
-        <v>32</v>
-      </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51" t="s">
-        <v>784</v>
-      </c>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-    </row>
-    <row r="41" spans="2:9" s="54" customFormat="1">
-      <c r="B41" s="53">
-        <v>37</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>820</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>544</v>
-      </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51" t="s">
-        <v>785</v>
-      </c>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-    </row>
-    <row r="42" spans="2:9" s="54" customFormat="1">
-      <c r="B42" s="53">
-        <v>38</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>821</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>544</v>
-      </c>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51" t="s">
-        <v>786</v>
-      </c>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-    </row>
-    <row r="43" spans="2:9" s="54" customFormat="1">
-      <c r="B43" s="53">
-        <v>39</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>822</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>823</v>
-      </c>
-      <c r="E43" s="50">
-        <v>500</v>
-      </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51" t="s">
-        <v>787</v>
-      </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="8">
-        <v>40</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>648</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="4">
-        <v>500</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="8">
-        <v>41</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="8">
-        <v>42</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="4">
-        <v>3</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="8">
-        <v>43</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="4">
-        <v>10</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="8">
-        <v>44</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="4">
-        <v>10</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="8">
-        <v>45</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="4">
-        <v>10</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="8">
-        <v>46</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="4">
-        <v>10</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="8">
-        <v>47</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="4">
-        <v>10</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="8">
-        <v>48</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="4">
-        <v>10</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="8">
-        <v>49</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="4">
-        <v>10</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="8">
-        <v>50</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="4">
-        <v>10</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="8">
-        <v>51</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="4">
-        <v>50</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="8">
-        <v>52</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="4">
-        <v>200</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="8">
-        <v>53</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="4">
-        <v>5</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="8">
-        <v>54</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="8">
-        <v>55</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="4">
-        <v>5</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="8">
-        <v>56</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>